--- a/Data_clean/MCAS/Estados_US/Edos_USA_2013/MASSACHUSETTS_2013.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2013/MASSACHUSETTS_2013.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Asientos</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Pabellon De Arteaga</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -491,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Chapultenango</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Huixtan</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Juarez</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Mazatan</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Sabanilla</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tonala</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Union Juarez</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Villa Comaltitlan</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Comala</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Tecoman</t>
@@ -903,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -916,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Coyoacan</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1007,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1056,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Otaez</t>
@@ -1069,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Panuco De Coronado</t>
@@ -1082,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>San Juan De Guadalupe</t>
@@ -1131,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1144,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -1157,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -1170,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1183,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>San Francisco Del Rincon</t>
@@ -1196,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>San Jose Iturbide</t>
@@ -1209,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1222,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -1235,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -1248,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -1261,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1292,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1305,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -1318,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1331,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1344,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -1357,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -1370,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Coyuca De Benitez</t>
@@ -1383,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Coyuca De Catalan</t>
@@ -1396,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -1409,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -1422,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -1435,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>San Luis Acatlan</t>
@@ -1448,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -1461,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Taxco De Alarcon</t>
@@ -1474,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1487,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Tetipac</t>
@@ -1500,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Xalpatlahuac</t>
@@ -1513,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1544,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Ajacuba</t>
@@ -1557,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -1570,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1583,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -1596,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1609,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Nopala De Villagran</t>
@@ -1622,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1635,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -1648,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>San Bartolo Tutotepec</t>
@@ -1661,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -1674,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1687,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1718,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Ayotlan</t>
@@ -1731,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Colotlan</t>
@@ -1744,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Encarnacion De Diaz</t>
@@ -1757,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1770,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Ixtlahuacan Del Rio</t>
@@ -1783,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Jalostotitlan</t>
@@ -1796,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -1809,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -1822,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -1835,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Tepatitlan De Morelos</t>
@@ -1848,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tizapan El Alto</t>
@@ -1861,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Tlajomulco De Zuñiga</t>
@@ -1874,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Tlaquepaque</t>
@@ -1887,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Tuxcueca</t>
@@ -1900,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Union De Tula</t>
@@ -1913,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1926,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1957,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Aculco</t>
@@ -1970,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -1983,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1996,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -2009,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -2022,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Jiquipilco</t>
@@ -2035,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Jocotitlan</t>
@@ -2048,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -2061,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Naucalpan De Juarez</t>
@@ -2074,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -2087,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2100,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Tianguistenco</t>
@@ -2113,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2126,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -2139,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2188,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -2201,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -2214,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -2227,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -2240,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Maravatio</t>
@@ -2253,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2266,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -2279,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Patzcuaro</t>
@@ -2292,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -2305,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -2318,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -2331,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2344,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -2357,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Zinapecuaro</t>
@@ -2406,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Axochiapan</t>
@@ -2419,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -2432,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -2445,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Ocuituco</t>
@@ -2458,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Xochitepec</t>
@@ -2543,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Calihuala</t>
@@ -2556,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -2569,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -2582,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Juchitan De Zaragoza</t>
@@ -2595,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>La Compañia</t>
@@ -2608,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -2621,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Martires De Tacubaya</t>
@@ -2634,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Matias Romero Avendaño</t>
@@ -2647,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Miahuatlan De Porfirio Diaz</t>
@@ -2660,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Nazareno Etla</t>
@@ -2673,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -2686,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -2699,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Reyes Etla</t>
@@ -2712,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>San Agustin Yatareni</t>
@@ -2725,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -2738,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>San Dionisio Del Mar</t>
@@ -2751,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>San Francisco Cahuacua</t>
@@ -2764,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -2777,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>San Pedro Quiatoni</t>
@@ -2790,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Teposcolula</t>
@@ -2803,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Santa Maria Apazco</t>
@@ -2816,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Santa Maria Tonameca</t>
@@ -2829,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -2842,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Tataltepec De Valdes</t>
@@ -2855,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -2868,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Totontepec Villa De Morelos</t>
@@ -2881,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2912,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Cañada Morelos</t>
@@ -2925,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -2938,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -2951,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -2964,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -2977,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -2990,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -3003,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Huehuetlan El Chico</t>
@@ -3016,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -3029,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -3042,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Lafragua</t>
@@ -3055,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -3068,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Los Reyes De Juarez</t>
@@ -3081,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -3094,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Pahuatlan</t>
@@ -3107,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Petlalcingo</t>
@@ -3120,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -3133,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>San Martin Texmelucan</t>
@@ -3146,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -3159,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -3172,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Tepeyahualco</t>
@@ -3185,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -3198,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -3211,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Tochtepec</t>
@@ -3260,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Pedro Escobedo</t>
@@ -3345,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Huehuetlan</t>
@@ -3358,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -3371,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Rayon</t>
@@ -3384,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -3397,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -3410,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Santa Maria Del Rio</t>
@@ -3423,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Tierra Nueva</t>
@@ -3436,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -3485,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -3534,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -3547,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -3560,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -3609,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -3622,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Miquihuana</t>
@@ -3635,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -3648,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -3697,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -3710,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Ixtacuixtla De Mariano Matamoros</t>
@@ -3723,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Nativitas</t>
@@ -3736,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Panotla</t>
@@ -3749,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -3762,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Tetlatlahuca</t>
@@ -3775,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -3788,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -3801,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -3814,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3845,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -3858,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Cordoba</t>
@@ -3871,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -3884,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -3897,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -3910,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Ixhuatlan De Madero</t>
@@ -3923,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -3936,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -3949,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -3962,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -3975,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -3988,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Minatitlan</t>
@@ -4001,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -4014,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Puente Nacional</t>
@@ -4027,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>San Andres Tuxtla</t>
@@ -4040,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -4053,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Tepetzintla</t>
@@ -4066,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -4079,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -4092,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -4105,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Tuxpam</t>
@@ -4118,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -4131,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Zentla</t>
@@ -4144,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4211,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Teul De Gonzalez Ortega</t>
